--- a/src/main/resources/poi/report_warehouse_summary.xlsx
+++ b/src/main/resources/poi/report_warehouse_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B11CBA-86D3-4AE5-AA17-A135FB6387EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A1463-C9BB-4DA3-879D-E598B9D85C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5652" yWindow="2796" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,18 +256,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +582,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,24 +601,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -625,34 +627,34 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -672,10 +674,10 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="5" t="s">

--- a/src/main/resources/poi/report_warehouse_summary.xlsx
+++ b/src/main/resources/poi/report_warehouse_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A1463-C9BB-4DA3-879D-E598B9D85C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED813B-4125-4E9B-917B-35B1DE61BAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.materieTypelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t.materielSerialNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +144,10 @@
   </si>
   <si>
     <t>t.finalAmount}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.materielTypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,10 +265,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,7 +582,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,24 +601,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -663,46 +663,46 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
